--- a/ApplicationData/amazonsheet.xlsx
+++ b/ApplicationData/amazonsheet.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>alaxa</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,7 +367,13 @@
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ApplicationData/amazonsheet.xlsx
+++ b/ApplicationData/amazonsheet.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>alaxa</t>
+  </si>
+  <si>
+    <t>laptop</t>
   </si>
 </sst>
 </file>
@@ -357,9 +360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -368,9 +373,12 @@
     <col min="4" max="4" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ApplicationData/amazonsheet.xlsx
+++ b/ApplicationData/amazonsheet.xlsx
@@ -16,22 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>alaxa</t>
   </si>
   <si>
     <t>laptop</t>
   </si>
+  <si>
+    <t>amzftv@gmail.com</t>
+  </si>
+  <si>
+    <t>ab410410</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,13 +68,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +398,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ApplicationData/amazonsheet.xlsx
+++ b/ApplicationData/amazonsheet.xlsx
@@ -24,7 +24,7 @@
     <t>laptop</t>
   </si>
   <si>
-    <t>amzftv@gmail.com</t>
+    <t>amzftv410@gmail.com</t>
   </si>
   <si>
     <t>ab410410</t>
@@ -72,9 +72,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,7 +403,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ApplicationData/amazonsheet.xlsx
+++ b/ApplicationData/amazonsheet.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>alaxa</t>
-  </si>
-  <si>
     <t>laptop</t>
   </si>
   <si>
@@ -28,6 +25,9 @@
   </si>
   <si>
     <t>ab410410</t>
+  </si>
+  <si>
+    <t>alexa</t>
   </si>
 </sst>
 </file>
@@ -59,12 +59,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -75,7 +84,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -380,9 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -393,18 +400,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
